--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2336677.87938574</v>
+        <v>2334790.297869338</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>26.53815412835747</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.1210607601529</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>120.0321124540375</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>83.85112090809105</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>126.7477612906578</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.4834516452246</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634791</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>262.7491795980058</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896896</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>135.2698980745968</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883384993</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>62.63869417193506</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151908</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273781</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>17.29855725687318</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>106.7148935340132</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.58458003433773</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>278.9571176270119</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>58.19095390327369</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151912</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>39.7336342856412</v>
+        <v>5.322702126633671</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>93.41221638965517</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>91.23070601801199</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437402</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>93.71057173897894</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571477</v>
+        <v>55.21598883571481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523557</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700201</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235376</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463023</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415323</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.342874726952</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2339.279987383381</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1986.511332113267</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1613.045573852188</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>554.3221432721089</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>196.0564446653584</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>196.0564446653584</v>
+        <v>782.0520763105717</v>
       </c>
       <c r="F5" t="n">
-        <v>189.1109439161549</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>175.1875398547458</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>175.1875398547458</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583417</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097701</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097701</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859355</v>
+        <v>1894.539591564833</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982752</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224635</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
         <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,37 +4936,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046677</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767608</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658208</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035279</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035279</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>922.517945320122</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>667.8334571142351</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>667.8334571142351</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>667.8334571142351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,28 +5297,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701559</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766198</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656581</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320614</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>850.2141304319065</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>681.2779475039996</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>531.1613080916638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>531.1613080916638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>384.2713605937535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473454</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473454</v>
+        <v>731.3177283550798</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.996260473454</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="X16" t="n">
-        <v>1071.006709575437</v>
+        <v>213.9110074201018</v>
       </c>
       <c r="Y16" t="n">
-        <v>850.2141304319065</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,37 +5510,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701559</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766198</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656581</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320614</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028581</v>
+        <v>310.6051391271014</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028581</v>
+        <v>310.6051391271014</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028581</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028581</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028581</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028581</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028581</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028581</v>
+        <v>310.6051391271014</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080544</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822432</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571606</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636246</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307618</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526315</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="D22" t="n">
-        <v>245.1301850426789</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1167.33803359588</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>912.6535453899926</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>623.236375353032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>395.2468244550147</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.2468244550147</v>
+        <v>226.2249729967965</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571606</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636246</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307618</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526315</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.1301850426788</v>
+        <v>450.0103882072908</v>
       </c>
       <c r="C25" t="n">
-        <v>245.1301850426788</v>
+        <v>281.0742052793839</v>
       </c>
       <c r="D25" t="n">
-        <v>245.1301850426788</v>
+        <v>281.0742052793839</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028581</v>
+        <v>133.1611116969906</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028581</v>
+        <v>133.1611116969906</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.221394183544</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V25" t="n">
-        <v>762.5369059776567</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="W25" t="n">
-        <v>473.1197359406962</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="X25" t="n">
-        <v>245.1301850426788</v>
+        <v>670.8029673508209</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.1301850426788</v>
+        <v>450.0103882072908</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,19 +6209,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6230,7 +6230,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,16 +6242,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6500,13 +6500,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1396.107276203138</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030898</v>
+        <v>439.5324299542198</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761796</v>
+        <v>434.1559631596403</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452147</v>
+        <v>339.8001890286754</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441926</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="F31" t="n">
         <v>247.6479607276532</v>
@@ -6619,16 +6619,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818954</v>
+        <v>902.6804289818942</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652489</v>
+        <v>730.4517433652478</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030898</v>
+        <v>565.4200295030886</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6719,13 +6719,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,16 +6786,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110832</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229662</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506715</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083195</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504502</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103113</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982962</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010307</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.969903867171</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,13 +7564,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627892</v>
       </c>
       <c r="M9" t="n">
-        <v>422.28657940933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>18.73797368291358</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>96.03744927814802</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298209</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814802</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208077</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208077</v>
+        <v>188.8856946302408</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>272.8719470256808</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2863157167187</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>22.04402060665552</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>169.2863157167187</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237944</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>23.48817280057161</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.08849621799477</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>31.22367038878076</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>86.27513419560091</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338659</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.3169157613392</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>179.5224588645642</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>130.9089884290399</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>7.280234771565404</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>163.3566071551156</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338614</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.3099301844294</v>
+        <v>106.720862343437</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437406</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.122657522500958e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800522</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="11">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.238904999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327926</v>
@@ -26338,22 +26338,22 @@
         <v>547440.6836327926</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833787</v>
+        <v>569550.9922833786</v>
       </c>
       <c r="L2" t="n">
+        <v>574729.2389049977</v>
+      </c>
+      <c r="M2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="M2" t="n">
-        <v>574729.2389049983</v>
-      </c>
       <c r="N2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049978</v>
+        <v>574729.2389049977</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284591</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086676</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143918</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143922</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143924</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563574</v>
+        <v>33210.29213563573</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275962</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241778</v>
+        <v>-254872.6766241776</v>
       </c>
       <c r="C6" t="n">
+        <v>335095.2025903668</v>
+      </c>
+      <c r="D6" t="n">
         <v>335095.2025903669</v>
       </c>
-      <c r="D6" t="n">
-        <v>335095.2025903665</v>
-      </c>
       <c r="E6" t="n">
-        <v>-84752.34841425913</v>
+        <v>-84849.8075402317</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626369</v>
+        <v>440310.2289366647</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626364</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626368</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626369</v>
+        <v>440310.2289366647</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700438</v>
+        <v>263887.0097440718</v>
       </c>
       <c r="K6" t="n">
-        <v>395549.8863146743</v>
+        <v>395531.3925767401</v>
       </c>
       <c r="L6" t="n">
-        <v>429206.7694213469</v>
+        <v>429206.769421346</v>
       </c>
       <c r="M6" t="n">
-        <v>304748.6609883761</v>
+        <v>304748.6609883765</v>
       </c>
       <c r="N6" t="n">
-        <v>439549.6762222126</v>
+        <v>439549.6762222138</v>
       </c>
       <c r="O6" t="n">
-        <v>439549.6762222134</v>
+        <v>439549.6762222137</v>
       </c>
       <c r="P6" t="n">
-        <v>395387.0709193671</v>
+        <v>395387.070919367</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26704,22 +26704,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964068</v>
@@ -26744,22 +26744,22 @@
         <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990178</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990174</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545559</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>224.6860133799318</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.75498498155849</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>31.89920379082372</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>281.4217708629165</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>242.9833393878112</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.465120438763671e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.586375558166765e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.984279490192421e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338303</v>
@@ -31540,19 +31540,19 @@
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,10 +31592,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890688</v>
@@ -31607,13 +31607,13 @@
         <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923046</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
         <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32464,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,46 +32701,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,43 +32780,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,43 +32862,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,46 +32938,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33099,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35191,7 +35191,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307157</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856238</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35340,13 +35340,13 @@
         <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>397.3927609030888</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>378.401151519256</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>378.401151519256</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523322</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523322</v>
+        <v>395.9791095617654</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36531,10 +36531,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>522.129651981705</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>479.7106927671849</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412274</v>
+        <v>67.7110267941227</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043197</v>
+        <v>94.42895660043193</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>304.4077228477636</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686864</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>502.4808891147315</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>618.2977090519464</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>484.8867074649025</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
